--- a/biology/Zoologie/Hamoun-e_Puzak/Hamoun-e_Puzak.xlsx
+++ b/biology/Zoologie/Hamoun-e_Puzak/Hamoun-e_Puzak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hamoun-e Puzak est un lac d'eau douce du sud-est de l'Afghanistan et du sud-est de l'Iran, qui fait partie de la chaîne de lacs du Sistan appelés Hamouns. Il est situé à cheval sur la frontière irano-afghane, dans les provinces afghane de Nimrôz et iranienne de Sistan-o-Balouchestan.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hamoun-e Puzak est un lac peu profond d'à peu près 500 kilomètres carrés de surface moyenne dont plus de 400 en territoire afghan. Il est situé dans la cuvette du Sistan, région la plus déclive du plateau irano-afghan, à 100 kilomètres au sud-sud-ouest de la ville afghane de Farâh. Le lac a toujours été sujet à d'importantes fluctuations de taille suivant les variations des précipitations de pluie et de neige dans son bassin. Cependant, au sein de la chaîne des lacs appelés hamouns du Sistan, il est le premier à être alimenté lors des périodes de crue. De ce fait il ne s'assèche jamais complètement, même durant les sècheresses les plus sévères. 
 Sa taille varie largement d'après les saisons et d'année en année, d'après la quantité de précipitations écoulées dans les bassins de ses tributaires. 
-La portion iranienne du lac a été désignée comme faisant partie de la convention de Ramsar en 1975[1], mais reste non protégée.
+La portion iranienne du lac a été désignée comme faisant partie de la convention de Ramsar en 1975, mais reste non protégée.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>L' Hamoun-e Puzak en chiffres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Superficie maximale : 1 514,4 kilomètres carrés, dont 61 en Iran (Par superficie on entend la plus vaste surface couverte d'eau observée historiquement par image satellite, et non pas superficie moyenne, laquelle est de plus ou moins 500 km²)
 Volume maximal : 4 482,3 millions de mètres cubes
-Profondeur moyenne : 3 mètres[2].</t>
+Profondeur moyenne : 3 mètres.</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lac est avant tout alimenté par les pluies d'hiver et la fonte des neiges des massifs montagneux afghans au printemps. L'eau lui parvient par les rivières Khach et Helmand qui prennent naissance dans les massifs de l'Hindou Kouch, du Koh-i Baba, du Koh-i Paghman et du Siyah Band, dans les hautes terres centrales de l'Afghanistan, situées au nord-est du lac.
 L'apport le plus important, celui de l'Helmand, pénètre dans le lac dans sa partie sud par le bras appelé Parian. 
@@ -612,11 +630,48 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lac est extrêmement important pour le passage et l'hivernage de la faune aviaire aquatique migratrice, et également, durant les années de haut niveau de l'eau, pour la nidification et la reproduction d'une série d'espèces d'oiseaux
-Les oiseaux aquatiques
-Quelque 369 000 oiseaux aquatiques furent recensés lors d'une surveillance aérienne de la portion afghane de l'Hamoun-e Puzak en janvier 1976. Après cette date, on n'a plus guère effectué ce genre de relevés, à la suite des guerres qui n'ont cessé de ravager le pays. Voici leur répartition :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hamoun-e_Puzak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamoun-e_Puzak</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les oiseaux aquatiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelque 369 000 oiseaux aquatiques furent recensés lors d'une surveillance aérienne de la portion afghane de l'Hamoun-e Puzak en janvier 1976. Après cette date, on n'a plus guère effectué ce genre de relevés, à la suite des guerres qui n'ont cessé de ravager le pays. Voici leur répartition :
 Pélicans : 250 pélicans blancs et 350 Pélicans frisés
 Cormorans : 1 400 grands cormorans
 Aigrettes et hérons : environ 1 800 grandes aigrettes, plus de 400 hérons cendrés, et 12 hérons pourprés
@@ -636,31 +691,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Hamoun-e_Puzak</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hamoun-e_Puzak</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Situation écologique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les eaux apportées tant par le Khach que par l'Helmand sont douces et d'assez bonne qualité. Cela est dû à la très modeste industrialisation de leur bassin et au faible emploi de pesticides et autres engrais chimiques sur les terres irriguées en amont.
 L'Hamoun-e Puzak est surtout menacé par les digues et projets d'irrigation des cours d'eau qui l'alimentent, essentiellement dans le bassin de l'Helmand. 
